--- a/TestDataProject/src/test/resources/testData/Suite.xlsx
+++ b/TestDataProject/src/test/resources/testData/Suite.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Suite" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>SuiteName</t>
   </si>
@@ -35,9 +34,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -358,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -387,7 +383,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
